--- a/df_list_20241224.xlsx
+++ b/df_list_20241224.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -505,16 +505,83 @@
   </si>
   <si>
     <t>「제64회 경상남도민체육대회 공개행사 및 성화봉송 등 연출대행 용역」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>「광명시 도심형 스마트팜 조성사업(재배시설 구매설치)」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194</t>
+  </si>
+  <si>
+    <t>보은군 공공실버주택 스마트돌봄시스템 구축사업 용역 제안서 평가위원회 정성평가 결과 및 평가위원회 명단 공고</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>「형곡전망대 연결다리 설치사업」신기술・특허공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>「형곡전망대 연결다시 설치사업」특정(신기술・특허)공법 선정 제안서 평가위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>『청도군 농촌공간 재구조화 및 재생기본계획 수립용역』제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>「탄천센터 최초침전지 내부보수공사(1처리장) 등 3건」 신기술·특허공법 선정 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>인천광역시종합건설본부</t>
+  </si>
+  <si>
+    <t>https://www.incheon.go.kr/jonggeon/JO020101</t>
+  </si>
+  <si>
+    <t>공지루원복합청사 미술작품 제작 및 설치 제안서평가위원회 평가결과 공개</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -536,6 +603,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -576,6 +647,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1820,17 +1900,226 @@
         <v>45650.60555555556</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45650.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45650.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45650.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45650.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45650.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45649.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45650.943136574075</v>
+      </c>
+    </row>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -2770,9 +3059,22 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C52"/>
+    <hyperlink r:id="rId2" ref="C53"/>
+    <hyperlink r:id="rId3" ref="C54"/>
+    <hyperlink r:id="rId4" ref="C55"/>
+    <hyperlink r:id="rId5" ref="C56"/>
+    <hyperlink r:id="rId6" location="list/1" ref="C57"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C58"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C59"/>
+    <hyperlink r:id="rId9" location="list/1" ref="C60"/>
+    <hyperlink r:id="rId10" ref="C61"/>
+    <hyperlink r:id="rId11" ref="C62"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>